--- a/CashFlow/TRMB_cashflow.xlsx
+++ b/CashFlow/TRMB_cashflow.xlsx
@@ -74,8 +74,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1287000000.0</v>
+        <v>-5000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1297000000.0</v>
+        <v>-42100000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>972300000.0</v>
+        <v>-61900000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>647500000.0</v>
+        <v>-34900000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>313700000.0</v>
+        <v>-21300000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-14300000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-15700000.0</v>
+        <v>548000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-25800000.0</v>
+        <v>564000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-54000000.0</v>
+        <v>409200000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-7200000.0</v>
+        <v>308700000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-51400000.0</v>
+        <v>106700000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-19900000.0</v>
